--- a/Doku/todos.xlsx
+++ b/Doku/todos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\todo\Doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\fiae-ls8_9_10a\Doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DAF31B5-009A-4EE5-B7F8-8C648855ADAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A37D09-5BC7-4F36-8B0E-183957B0CC78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10830" yWindow="4500" windowWidth="28800" windowHeight="15435" xr2:uid="{2543FABD-8B82-410E-A2E3-912EBF3C3B43}"/>
+    <workbookView xWindow="1560" yWindow="3000" windowWidth="28800" windowHeight="15195" xr2:uid="{2543FABD-8B82-410E-A2E3-912EBF3C3B43}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -41,42 +41,18 @@
     <t>Piorität</t>
   </si>
   <si>
-    <t>Projekt</t>
-  </si>
-  <si>
     <t>DBMS Auswählen</t>
   </si>
   <si>
     <t>hoch</t>
   </si>
   <si>
-    <t>TodoList</t>
-  </si>
-  <si>
-    <t>Einkaufen , Wäsche waschen</t>
-  </si>
-  <si>
     <t>niedrig</t>
   </si>
   <si>
-    <t>Haushalt</t>
-  </si>
-  <si>
-    <t>Schule</t>
-  </si>
-  <si>
-    <t>Hausaufgaben machen</t>
-  </si>
-  <si>
-    <t>Datenbankentwurf</t>
-  </si>
-  <si>
     <t>mittel</t>
   </si>
   <si>
-    <t>ToDoList, Schule</t>
-  </si>
-  <si>
     <t>Datenbankabfragen</t>
   </si>
   <si>
@@ -105,6 +81,54 @@
   </si>
   <si>
     <t>29.10.</t>
+  </si>
+  <si>
+    <t>Mitarbeiter</t>
+  </si>
+  <si>
+    <t>JOBE GmbH</t>
+  </si>
+  <si>
+    <t>Simone Musterfrau</t>
+  </si>
+  <si>
+    <t>Tim Taler</t>
+  </si>
+  <si>
+    <t>DB Anlegen</t>
+  </si>
+  <si>
+    <t>Schulte OHG</t>
+  </si>
+  <si>
+    <t>Max Musterman</t>
+  </si>
+  <si>
+    <t>Login Funktionalität</t>
+  </si>
+  <si>
+    <t>Jobe GmbH, Schulte OHG</t>
+  </si>
+  <si>
+    <t>Webseite gestalten ,Webserver installieren</t>
+  </si>
+  <si>
+    <t>Max Mustermann (*), Simone Schlau</t>
+  </si>
+  <si>
+    <t>Tim Taler, Simone Schlau (*)</t>
+  </si>
+  <si>
+    <t>(*)</t>
+  </si>
+  <si>
+    <t>Ansprechpartner</t>
+  </si>
+  <si>
+    <t>Kunde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Mustermann (*), Tim Taler </t>
   </si>
 </sst>
 </file>
@@ -131,18 +155,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -152,18 +170,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -268,7 +286,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -281,7 +301,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -294,53 +316,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -349,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -360,68 +339,49 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,114 +697,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0B746F-5CA6-4FA1-BF86-FB58F2D7BA50}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.5703125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="21" t="s">
+      <c r="E4" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="C7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>8</v>
       </c>
+      <c r="E7" s="20" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>5</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Doku/todos.xlsx
+++ b/Doku/todos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\fiae-ls8_9_10a\Doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A37D09-5BC7-4F36-8B0E-183957B0CC78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A034D9DD-B394-4D8D-9A32-0CDEDF7ADBB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="3000" windowWidth="28800" windowHeight="15195" xr2:uid="{2543FABD-8B82-410E-A2E3-912EBF3C3B43}"/>
+    <workbookView xWindow="1215" yWindow="2655" windowWidth="28800" windowHeight="15195" xr2:uid="{2543FABD-8B82-410E-A2E3-912EBF3C3B43}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>Mitarbeiter</t>
   </si>
   <si>
-    <t>JOBE GmbH</t>
-  </si>
-  <si>
     <t>Simone Musterfrau</t>
   </si>
   <si>
@@ -98,18 +95,12 @@
     <t>DB Anlegen</t>
   </si>
   <si>
-    <t>Schulte OHG</t>
-  </si>
-  <si>
     <t>Max Musterman</t>
   </si>
   <si>
     <t>Login Funktionalität</t>
   </si>
   <si>
-    <t>Jobe GmbH, Schulte OHG</t>
-  </si>
-  <si>
     <t>Webseite gestalten ,Webserver installieren</t>
   </si>
   <si>
@@ -129,6 +120,15 @@
   </si>
   <si>
     <t xml:space="preserve">Max Mustermann (*), Tim Taler </t>
+  </si>
+  <si>
+    <t>JOBE GmbH, Haupstr. 2, 30539 Hannover (trustlevel=1.0)</t>
+  </si>
+  <si>
+    <t>Schulte OHG, Nebenstr. 15b, 31134 Hildesheim (trustlevel=0.8)</t>
+  </si>
+  <si>
+    <t>JOBE GmbH, Haupstr. 2, 30539 Hannover (trustlevel=1.0), Schulte OHG, Nebenstr. 15b, 31134 Hildesheim (trustlevel=0.8)</t>
   </si>
 </sst>
 </file>
@@ -700,7 +700,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E12" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +708,7 @@
     <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="18.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -725,12 +725,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>2</v>
@@ -742,15 +742,15 @@
         <v>3</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>11</v>
@@ -759,15 +759,15 @@
         <v>4</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>12</v>
@@ -776,15 +776,15 @@
         <v>3</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -793,12 +793,12 @@
         <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -810,12 +810,12 @@
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>7</v>
@@ -827,15 +827,15 @@
         <v>8</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
